--- a/bms-site/src/main/webapp/WEB-INF/templates/storage/pallet_storage_import_template.xlsx
+++ b/bms-site/src/main/webapp/WEB-INF/templates/storage/pallet_storage_import_template.xlsx
@@ -68,6 +68,21 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填：商家全称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
@@ -87,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>商家全称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +161,14 @@
   </si>
   <si>
     <t>出库托数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100000025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,17 +566,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="27.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="8" customWidth="1"/>
     <col min="6" max="7" width="9" style="6"/>
     <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
     <col min="9" max="9" width="10.625" style="8" customWidth="1"/>
@@ -564,7 +589,7 @@
     <col min="17" max="19" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -572,40 +597,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>42887</v>
       </c>
@@ -613,13 +641,15 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>6</v>
       </c>
     </row>
